--- a/실습/데이터식별자구분.xlsx
+++ b/실습/데이터식별자구분.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NohEul\Git Repository\BWG\실습\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\changyoung.shin\Desktop\폴리텍 자료\BWG\실습\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3166ED7D-8452-42CB-9494-1EEF5BA95457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C75680E-3945-4173-AF43-A6A38449DB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{1849B91D-F1AD-48CA-B1D4-802AA37F7BAE}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1849B91D-F1AD-48CA-B1D4-802AA37F7BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="학생기본" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="78">
   <si>
     <t>김의엽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,7 +322,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A반</t>
+    <t>데이터융합반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈핵형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,41 +433,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -472,17 +464,17 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -802,119 +794,119 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(A3,학생반관계!$A$1:$C$15,3,FALSE)</f>
-        <v>A반</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+        <v>데이터융합반</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(A4,학생반관계!$A$1:$C$15,3,FALSE)</f>
-        <v>A반</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+        <v>데이터융합반</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(A5,학생반관계!$A$1:$C$15,3,FALSE)</f>
-        <v>A반</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+        <v>데이터융합반</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(A6,학생반관계!$A$1:$C$15,3,FALSE)</f>
-        <v>A반</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+        <v>데이터융합반</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(A7,학생반관계!$A$1:$C$15,3,FALSE)</f>
-        <v>A반</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+        <v>데이터융합반</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="str">
         <f>VLOOKUP(A8,학생반관계!$A$1:$C$15,3,FALSE)</f>
-        <v>A반</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+        <v>데이터융합반</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="str">
         <f>VLOOKUP(A9,학생반관계!$A$1:$C$15,3,FALSE)</f>
-        <v>A반</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+        <v>데이터융합반</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="str">
@@ -922,11 +914,11 @@
         <v>B반</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="str">
@@ -934,11 +926,11 @@
         <v>B반</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="str">
@@ -946,11 +938,11 @@
         <v>B반</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="str">
@@ -958,11 +950,11 @@
         <v>C반</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="str">
@@ -970,11 +962,11 @@
         <v>C반</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="str">
@@ -982,7 +974,7 @@
         <v>C반</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -991,20 +983,20 @@
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP(A16,학생반관계!$A$1:$C$15,3,FALSE)</f>
-        <v>A반</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+        <v>데이터융합반</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+      <c r="B20" s="13"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1019,269 +1011,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97782232-AFE9-46D3-9FED-62D2714B12ED}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.796875" style="1"/>
+    <col min="4" max="5" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>1011111111</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>1022222222</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>1033333333</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>1044444444</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>1055555555</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>1066666666</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>1077777777</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>1088888888</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>1099999999</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>1010101010</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>1001010101</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>1020202020</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>1002020202</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="2">
         <v>1033333333</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1306,43 +1322,43 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="1"/>
+    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1"/>
     <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1357,44 +1373,44 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="17.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1409,113 +1425,113 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(B2,반기본!$A$1:$B$4,2,FALSE)</f>
-        <v>A반</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+        <v>데이터융합반</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(B3,반기본!$A$1:$B$4,2,FALSE)</f>
-        <v>A반</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+        <v>데이터융합반</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(B4,반기본!$A$1:$B$4,2,FALSE)</f>
-        <v>A반</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+        <v>데이터융합반</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(B5,반기본!$A$1:$B$4,2,FALSE)</f>
-        <v>A반</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+        <v>데이터융합반</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(B6,반기본!$A$1:$B$4,2,FALSE)</f>
-        <v>A반</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+        <v>데이터융합반</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(B7,반기본!$A$1:$B$4,2,FALSE)</f>
-        <v>A반</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+        <v>데이터융합반</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="str">
         <f>VLOOKUP(B8,반기본!$A$1:$B$4,2,FALSE)</f>
-        <v>A반</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+        <v>데이터융합반</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C9" t="str">
@@ -1523,11 +1539,11 @@
         <v>B반</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C10" t="str">
@@ -1535,11 +1551,11 @@
         <v>B반</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C11" t="str">
@@ -1547,11 +1563,11 @@
         <v>B반</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C12" t="str">
@@ -1559,11 +1575,11 @@
         <v>C반</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="str">
@@ -1571,11 +1587,11 @@
         <v>C반</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="str">
@@ -1583,16 +1599,16 @@
         <v>C반</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C15" t="str">
         <f>VLOOKUP(B15,반기본!$A$1:$B$4,2,FALSE)</f>
-        <v>A반</v>
+        <v>데이터융합반</v>
       </c>
     </row>
   </sheetData>
@@ -1605,134 +1621,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9B8501-6BFB-4CC5-A604-647BBABBF536}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
     </row>
